--- a/wwwroot/Archives/Weekly/xlsx/WeeklyResults202201.xlsx
+++ b/wwwroot/Archives/Weekly/xlsx/WeeklyResults202201.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos86\OBGpgm\wwwroot\SavedFiles\Weekly\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos86\OBGpgm\wwwroot\Archives\Weekly\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49AECCD1-9FDA-40AB-A12B-C4D12721FF14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{846997FF-FECB-4DD0-B641-ADBB7C80E103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30735" yWindow="120" windowWidth="18735" windowHeight="14460" xr2:uid="{29BB6767-463E-4A90-8C92-E082EE002033}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7310" xr2:uid="{B677AB3D-95EC-46EF-ADC1-8C98868FC631}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -46,7 +45,7 @@
     <t>Spring - 2022</t>
   </si>
   <si>
-    <t>AS OF 11/6/2022</t>
+    <t>AS OF 2/3/2024</t>
   </si>
   <si>
     <t>Near Perfects</t>
@@ -325,6 +324,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -341,6 +343,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -348,6 +353,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -359,6 +367,9 @@
     <xf numFmtId="16" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
@@ -367,18 +378,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -693,1101 +692,1101 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4033789-A93B-4369-A149-5D682E169D03}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86254213-6A1F-4725-9C03-4BF2BDDAB982}">
   <dimension ref="A1:W21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA8" sqref="AA8"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.6328125" customWidth="1"/>
-    <col min="2" max="23" width="3.7265625" customWidth="1"/>
+    <col min="1" max="1" width="7.69140625" customWidth="1"/>
+    <col min="2" max="23" width="3.765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:23" s="2" customFormat="1" ht="20" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-    </row>
-    <row r="2" spans="1:23" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="18" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+    </row>
+    <row r="2" spans="1:23" s="2" customFormat="1" ht="20" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
-    </row>
-    <row r="3" spans="1:23" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A3" s="18" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+    </row>
+    <row r="3" spans="1:23" s="2" customFormat="1" ht="20" x14ac:dyDescent="0.4">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-    </row>
-    <row r="5" spans="1:23" s="2" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="18" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+    </row>
+    <row r="5" spans="1:23" s="2" customFormat="1" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="18"/>
-      <c r="V5" s="18"/>
-      <c r="W5" s="18"/>
-    </row>
-    <row r="6" spans="1:23" s="5" customFormat="1" ht="91.8" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="16" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+    </row>
+    <row r="6" spans="1:23" s="6" customFormat="1" ht="91" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="19"/>
+      <c r="B6" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="16" t="s">
+      <c r="D6" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="16" t="s">
+      <c r="J6" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="16" t="s">
+      <c r="K6" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="16" t="s">
+      <c r="L6" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="16" t="s">
+      <c r="M6" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="16" t="s">
+      <c r="N6" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="O6" s="16" t="s">
+      <c r="O6" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="P6" s="16" t="s">
+      <c r="P6" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="Q6" s="16" t="s">
+      <c r="Q6" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="R6" s="16" t="s">
+      <c r="R6" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="S6" s="16" t="s">
+      <c r="S6" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="T6" s="16" t="s">
+      <c r="T6" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="U6" s="16" t="s">
+      <c r="U6" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="V6" s="16" t="s">
+      <c r="V6" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="W6" s="17" t="s">
+      <c r="W6" s="21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:23" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="7">
         <v>1</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="7">
         <v>2</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="7">
         <v>3</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="7">
         <v>4</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="7">
         <v>5</v>
       </c>
-      <c r="G7" s="6">
-        <v>6</v>
-      </c>
-      <c r="H7" s="6">
-        <v>7</v>
-      </c>
-      <c r="I7" s="6">
-        <v>8</v>
-      </c>
-      <c r="J7" s="6">
-        <v>9</v>
-      </c>
-      <c r="K7" s="6">
-        <v>10</v>
-      </c>
-      <c r="L7" s="6">
+      <c r="G7" s="7">
+        <v>6</v>
+      </c>
+      <c r="H7" s="7">
+        <v>7</v>
+      </c>
+      <c r="I7" s="7">
+        <v>8</v>
+      </c>
+      <c r="J7" s="7">
+        <v>9</v>
+      </c>
+      <c r="K7" s="7">
+        <v>10</v>
+      </c>
+      <c r="L7" s="7">
         <v>11</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="7">
         <v>12</v>
       </c>
-      <c r="N7" s="6">
+      <c r="N7" s="7">
         <v>13</v>
       </c>
-      <c r="O7" s="6">
+      <c r="O7" s="7">
         <v>14</v>
       </c>
-      <c r="P7" s="6">
+      <c r="P7" s="7">
         <v>15</v>
       </c>
-      <c r="Q7" s="6">
+      <c r="Q7" s="7">
         <v>16</v>
       </c>
-      <c r="R7" s="6">
+      <c r="R7" s="7">
         <v>17</v>
       </c>
-      <c r="S7" s="6">
+      <c r="S7" s="7">
         <v>18</v>
       </c>
-      <c r="T7" s="6">
+      <c r="T7" s="7">
         <v>19</v>
       </c>
-      <c r="U7" s="6">
+      <c r="U7" s="7">
         <v>20</v>
       </c>
-      <c r="V7" s="6">
+      <c r="V7" s="7">
         <v>21</v>
       </c>
-      <c r="W7" s="9">
+      <c r="W7" s="11">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="10"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A8" s="16"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="12"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A9" s="17">
         <v>44664.647453703707</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="8">
         <v>4</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="8">
         <v>4</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="8">
         <v>11</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="8">
         <v>5</v>
       </c>
-      <c r="F9" s="7">
-        <v>9</v>
-      </c>
-      <c r="G9" s="7">
+      <c r="F9" s="8">
+        <v>9</v>
+      </c>
+      <c r="G9" s="8">
         <v>11</v>
       </c>
-      <c r="H9" s="7">
-        <v>9</v>
-      </c>
-      <c r="I9" s="7">
+      <c r="H9" s="8">
+        <v>9</v>
+      </c>
+      <c r="I9" s="8">
         <v>4</v>
       </c>
-      <c r="J9" s="7">
-        <v>8</v>
-      </c>
-      <c r="K9" s="7">
-        <v>8</v>
-      </c>
-      <c r="L9" s="7">
-        <v>9</v>
-      </c>
-      <c r="M9" s="7">
-        <v>7</v>
-      </c>
-      <c r="N9" s="7">
+      <c r="J9" s="8">
+        <v>8</v>
+      </c>
+      <c r="K9" s="8">
+        <v>8</v>
+      </c>
+      <c r="L9" s="8">
+        <v>9</v>
+      </c>
+      <c r="M9" s="8">
+        <v>7</v>
+      </c>
+      <c r="N9" s="8">
         <v>12</v>
       </c>
-      <c r="O9" s="7">
+      <c r="O9" s="8">
         <v>5</v>
       </c>
-      <c r="P9" s="7">
-        <v>8</v>
-      </c>
-      <c r="Q9" s="7">
-        <v>10</v>
-      </c>
-      <c r="R9" s="7">
-        <v>7</v>
-      </c>
-      <c r="S9" s="7">
+      <c r="P9" s="8">
+        <v>8</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>10</v>
+      </c>
+      <c r="R9" s="8">
+        <v>7</v>
+      </c>
+      <c r="S9" s="8">
         <v>12</v>
       </c>
-      <c r="T9" s="7">
+      <c r="T9" s="8">
         <v>12</v>
       </c>
-      <c r="U9" s="7">
+      <c r="U9" s="8">
         <v>4</v>
       </c>
-      <c r="V9" s="7">
-        <v>7</v>
-      </c>
-      <c r="W9" s="11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="14">
+      <c r="V9" s="8">
+        <v>7</v>
+      </c>
+      <c r="W9" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A10" s="17">
         <v>44671.647453703707</v>
       </c>
-      <c r="B10" s="7">
-        <v>6</v>
-      </c>
-      <c r="C10" s="7">
+      <c r="B10" s="8">
+        <v>6</v>
+      </c>
+      <c r="C10" s="8">
         <v>5</v>
       </c>
-      <c r="D10" s="7">
-        <v>9</v>
-      </c>
-      <c r="E10" s="7">
-        <v>8</v>
-      </c>
-      <c r="F10" s="7">
+      <c r="D10" s="8">
+        <v>9</v>
+      </c>
+      <c r="E10" s="8">
+        <v>8</v>
+      </c>
+      <c r="F10" s="8">
         <v>12</v>
       </c>
-      <c r="G10" s="7">
-        <v>7</v>
-      </c>
-      <c r="H10" s="7">
-        <v>7</v>
-      </c>
-      <c r="I10" s="7">
-        <v>6</v>
-      </c>
-      <c r="J10" s="7">
+      <c r="G10" s="8">
+        <v>7</v>
+      </c>
+      <c r="H10" s="8">
+        <v>7</v>
+      </c>
+      <c r="I10" s="8">
+        <v>6</v>
+      </c>
+      <c r="J10" s="8">
         <v>4</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="8">
         <v>12</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10" s="8">
         <v>11</v>
       </c>
-      <c r="M10" s="7">
-        <v>9</v>
-      </c>
-      <c r="N10" s="7">
-        <v>6</v>
-      </c>
-      <c r="O10" s="7">
+      <c r="M10" s="8">
+        <v>9</v>
+      </c>
+      <c r="N10" s="8">
+        <v>6</v>
+      </c>
+      <c r="O10" s="8">
         <v>4</v>
       </c>
-      <c r="P10" s="7">
-        <v>7</v>
-      </c>
-      <c r="Q10" s="7">
-        <v>8</v>
-      </c>
-      <c r="R10" s="7">
-        <v>7</v>
-      </c>
-      <c r="S10" s="7">
-        <v>10</v>
-      </c>
-      <c r="T10" s="7">
-        <v>8</v>
-      </c>
-      <c r="U10" s="7">
-        <v>9</v>
-      </c>
-      <c r="V10" s="7">
-        <v>10</v>
-      </c>
-      <c r="W10" s="11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="14">
+      <c r="P10" s="8">
+        <v>7</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>8</v>
+      </c>
+      <c r="R10" s="8">
+        <v>7</v>
+      </c>
+      <c r="S10" s="8">
+        <v>10</v>
+      </c>
+      <c r="T10" s="8">
+        <v>8</v>
+      </c>
+      <c r="U10" s="8">
+        <v>9</v>
+      </c>
+      <c r="V10" s="8">
+        <v>10</v>
+      </c>
+      <c r="W10" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A11" s="17">
         <v>44678.647453703707</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="8">
         <v>2</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="8">
         <v>14</v>
       </c>
-      <c r="D11" s="7">
-        <v>9</v>
-      </c>
-      <c r="E11" s="7">
+      <c r="D11" s="8">
+        <v>9</v>
+      </c>
+      <c r="E11" s="8">
         <v>5</v>
       </c>
-      <c r="F11" s="7">
-        <v>7</v>
-      </c>
-      <c r="G11" s="7">
-        <v>7</v>
-      </c>
-      <c r="H11" s="7">
-        <v>9</v>
-      </c>
-      <c r="I11" s="7">
-        <v>6</v>
-      </c>
-      <c r="J11" s="7">
+      <c r="F11" s="8">
+        <v>7</v>
+      </c>
+      <c r="G11" s="8">
+        <v>7</v>
+      </c>
+      <c r="H11" s="8">
+        <v>9</v>
+      </c>
+      <c r="I11" s="8">
+        <v>6</v>
+      </c>
+      <c r="J11" s="8">
         <v>11</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="8">
         <v>2</v>
       </c>
-      <c r="L11" s="7">
-        <v>10</v>
-      </c>
-      <c r="M11" s="7">
-        <v>10</v>
-      </c>
-      <c r="N11" s="7">
-        <v>6</v>
-      </c>
-      <c r="O11" s="7">
-        <v>9</v>
-      </c>
-      <c r="P11" s="7">
-        <v>6</v>
-      </c>
-      <c r="Q11" s="7">
+      <c r="L11" s="8">
+        <v>10</v>
+      </c>
+      <c r="M11" s="8">
+        <v>10</v>
+      </c>
+      <c r="N11" s="8">
+        <v>6</v>
+      </c>
+      <c r="O11" s="8">
+        <v>9</v>
+      </c>
+      <c r="P11" s="8">
+        <v>6</v>
+      </c>
+      <c r="Q11" s="8">
         <v>5</v>
       </c>
-      <c r="R11" s="7">
-        <v>8</v>
-      </c>
-      <c r="S11" s="7">
-        <v>9</v>
-      </c>
-      <c r="T11" s="7">
-        <v>7</v>
-      </c>
-      <c r="U11" s="7">
-        <v>8</v>
-      </c>
-      <c r="V11" s="7">
-        <v>7</v>
-      </c>
-      <c r="W11" s="11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="14">
+      <c r="R11" s="8">
+        <v>8</v>
+      </c>
+      <c r="S11" s="8">
+        <v>9</v>
+      </c>
+      <c r="T11" s="8">
+        <v>7</v>
+      </c>
+      <c r="U11" s="8">
+        <v>8</v>
+      </c>
+      <c r="V11" s="8">
+        <v>7</v>
+      </c>
+      <c r="W11" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A12" s="17">
         <v>44685.647453703707</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="8">
         <v>5</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="8">
         <v>5</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="8">
         <v>12</v>
       </c>
-      <c r="E12" s="7">
-        <v>7</v>
-      </c>
-      <c r="F12" s="7">
-        <v>10</v>
-      </c>
-      <c r="G12" s="7">
-        <v>6</v>
-      </c>
-      <c r="H12" s="7">
-        <v>7</v>
-      </c>
-      <c r="I12" s="7">
-        <v>9</v>
-      </c>
-      <c r="J12" s="7">
+      <c r="E12" s="8">
+        <v>7</v>
+      </c>
+      <c r="F12" s="8">
+        <v>10</v>
+      </c>
+      <c r="G12" s="8">
+        <v>6</v>
+      </c>
+      <c r="H12" s="8">
+        <v>7</v>
+      </c>
+      <c r="I12" s="8">
+        <v>9</v>
+      </c>
+      <c r="J12" s="8">
         <v>12</v>
       </c>
-      <c r="K12" s="7">
-        <v>10</v>
-      </c>
-      <c r="L12" s="7">
-        <v>9</v>
-      </c>
-      <c r="M12" s="7">
+      <c r="K12" s="8">
+        <v>10</v>
+      </c>
+      <c r="L12" s="8">
+        <v>9</v>
+      </c>
+      <c r="M12" s="8">
         <v>3</v>
       </c>
-      <c r="N12" s="7">
-        <v>6</v>
-      </c>
-      <c r="O12" s="7">
-        <v>10</v>
-      </c>
-      <c r="P12" s="7">
+      <c r="N12" s="8">
+        <v>6</v>
+      </c>
+      <c r="O12" s="8">
+        <v>10</v>
+      </c>
+      <c r="P12" s="8">
         <v>5</v>
       </c>
-      <c r="Q12" s="7">
-        <v>10</v>
-      </c>
-      <c r="R12" s="7">
-        <v>7</v>
-      </c>
-      <c r="S12" s="7">
-        <v>9</v>
-      </c>
-      <c r="T12" s="7">
-        <v>9</v>
-      </c>
-      <c r="U12" s="7">
+      <c r="Q12" s="8">
+        <v>10</v>
+      </c>
+      <c r="R12" s="8">
+        <v>7</v>
+      </c>
+      <c r="S12" s="8">
+        <v>9</v>
+      </c>
+      <c r="T12" s="8">
+        <v>9</v>
+      </c>
+      <c r="U12" s="8">
         <v>4</v>
       </c>
-      <c r="V12" s="7">
+      <c r="V12" s="8">
         <v>3</v>
       </c>
-      <c r="W12" s="11">
+      <c r="W12" s="13">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="14">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A13" s="17">
         <v>44692.647453703707</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="8">
         <v>5</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="8">
         <v>3</v>
       </c>
-      <c r="D13" s="7">
-        <v>9</v>
-      </c>
-      <c r="E13" s="7">
-        <v>8</v>
-      </c>
-      <c r="F13" s="7">
-        <v>9</v>
-      </c>
-      <c r="G13" s="7">
-        <v>7</v>
-      </c>
-      <c r="H13" s="7">
+      <c r="D13" s="8">
+        <v>9</v>
+      </c>
+      <c r="E13" s="8">
+        <v>8</v>
+      </c>
+      <c r="F13" s="8">
+        <v>9</v>
+      </c>
+      <c r="G13" s="8">
+        <v>7</v>
+      </c>
+      <c r="H13" s="8">
         <v>11</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="8">
         <v>5</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="8">
         <v>11</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K13" s="8">
         <v>14</v>
       </c>
-      <c r="L13" s="7">
-        <v>10</v>
-      </c>
-      <c r="M13" s="7">
+      <c r="L13" s="8">
+        <v>10</v>
+      </c>
+      <c r="M13" s="8">
         <v>11</v>
       </c>
-      <c r="N13" s="7">
-        <v>8</v>
-      </c>
-      <c r="O13" s="7">
+      <c r="N13" s="8">
+        <v>8</v>
+      </c>
+      <c r="O13" s="8">
         <v>5</v>
       </c>
-      <c r="P13" s="7">
-        <v>7</v>
-      </c>
-      <c r="Q13" s="7">
-        <v>8</v>
-      </c>
-      <c r="R13" s="7">
-        <v>6</v>
-      </c>
-      <c r="S13" s="7">
-        <v>8</v>
-      </c>
-      <c r="T13" s="7">
-        <v>9</v>
-      </c>
-      <c r="U13" s="7">
+      <c r="P13" s="8">
+        <v>7</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>8</v>
+      </c>
+      <c r="R13" s="8">
+        <v>6</v>
+      </c>
+      <c r="S13" s="8">
+        <v>8</v>
+      </c>
+      <c r="T13" s="8">
+        <v>9</v>
+      </c>
+      <c r="U13" s="8">
         <v>5</v>
       </c>
-      <c r="V13" s="7">
+      <c r="V13" s="8">
         <v>2</v>
       </c>
-      <c r="W13" s="11">
+      <c r="W13" s="13">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="14">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A14" s="17">
         <v>44699.647453703707</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="8">
         <v>12</v>
       </c>
-      <c r="C14" s="7">
-        <v>6</v>
-      </c>
-      <c r="D14" s="7">
-        <v>6</v>
-      </c>
-      <c r="E14" s="7">
-        <v>6</v>
-      </c>
-      <c r="F14" s="7">
+      <c r="C14" s="8">
+        <v>6</v>
+      </c>
+      <c r="D14" s="8">
+        <v>6</v>
+      </c>
+      <c r="E14" s="8">
+        <v>6</v>
+      </c>
+      <c r="F14" s="8">
         <v>3</v>
       </c>
-      <c r="G14" s="7">
-        <v>10</v>
-      </c>
-      <c r="H14" s="7">
-        <v>6</v>
-      </c>
-      <c r="I14" s="7">
-        <v>10</v>
-      </c>
-      <c r="J14" s="7">
+      <c r="G14" s="8">
+        <v>10</v>
+      </c>
+      <c r="H14" s="8">
+        <v>6</v>
+      </c>
+      <c r="I14" s="8">
+        <v>10</v>
+      </c>
+      <c r="J14" s="8">
         <v>13</v>
       </c>
-      <c r="K14" s="7">
-        <v>10</v>
-      </c>
-      <c r="L14" s="7">
+      <c r="K14" s="8">
+        <v>10</v>
+      </c>
+      <c r="L14" s="8">
         <v>12</v>
       </c>
-      <c r="M14" s="7">
-        <v>10</v>
-      </c>
-      <c r="N14" s="7">
-        <v>6</v>
-      </c>
-      <c r="O14" s="7">
-        <v>6</v>
-      </c>
-      <c r="P14" s="7">
-        <v>6</v>
-      </c>
-      <c r="Q14" s="7">
-        <v>7</v>
-      </c>
-      <c r="R14" s="7">
+      <c r="M14" s="8">
+        <v>10</v>
+      </c>
+      <c r="N14" s="8">
+        <v>6</v>
+      </c>
+      <c r="O14" s="8">
+        <v>6</v>
+      </c>
+      <c r="P14" s="8">
+        <v>6</v>
+      </c>
+      <c r="Q14" s="8">
+        <v>7</v>
+      </c>
+      <c r="R14" s="8">
         <v>4</v>
       </c>
-      <c r="S14" s="7">
-        <v>10</v>
-      </c>
-      <c r="T14" s="7">
-        <v>10</v>
-      </c>
-      <c r="U14" s="7">
+      <c r="S14" s="8">
+        <v>10</v>
+      </c>
+      <c r="T14" s="8">
+        <v>10</v>
+      </c>
+      <c r="U14" s="8">
         <v>3</v>
       </c>
-      <c r="V14" s="7">
-        <v>10</v>
-      </c>
-      <c r="W14" s="11">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="14">
+      <c r="V14" s="8">
+        <v>10</v>
+      </c>
+      <c r="W14" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A15" s="17">
         <v>44706.647453703707</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="8">
         <v>4</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="8">
         <v>4</v>
       </c>
-      <c r="D15" s="7">
-        <v>10</v>
-      </c>
-      <c r="E15" s="7">
-        <v>7</v>
-      </c>
-      <c r="F15" s="7">
-        <v>9</v>
-      </c>
-      <c r="G15" s="7">
-        <v>7</v>
-      </c>
-      <c r="H15" s="7">
-        <v>9</v>
-      </c>
-      <c r="I15" s="7">
-        <v>6</v>
-      </c>
-      <c r="J15" s="7">
-        <v>9</v>
-      </c>
-      <c r="K15" s="7">
-        <v>9</v>
-      </c>
-      <c r="L15" s="7">
-        <v>9</v>
-      </c>
-      <c r="M15" s="7">
-        <v>9</v>
-      </c>
-      <c r="N15" s="7">
+      <c r="D15" s="8">
+        <v>10</v>
+      </c>
+      <c r="E15" s="8">
+        <v>7</v>
+      </c>
+      <c r="F15" s="8">
+        <v>9</v>
+      </c>
+      <c r="G15" s="8">
+        <v>7</v>
+      </c>
+      <c r="H15" s="8">
+        <v>9</v>
+      </c>
+      <c r="I15" s="8">
+        <v>6</v>
+      </c>
+      <c r="J15" s="8">
+        <v>9</v>
+      </c>
+      <c r="K15" s="8">
+        <v>9</v>
+      </c>
+      <c r="L15" s="8">
+        <v>9</v>
+      </c>
+      <c r="M15" s="8">
+        <v>9</v>
+      </c>
+      <c r="N15" s="8">
         <v>12</v>
       </c>
-      <c r="O15" s="7">
+      <c r="O15" s="8">
         <v>4</v>
       </c>
-      <c r="P15" s="7">
-        <v>6</v>
-      </c>
-      <c r="Q15" s="7">
-        <v>7</v>
-      </c>
-      <c r="R15" s="7">
+      <c r="P15" s="8">
+        <v>6</v>
+      </c>
+      <c r="Q15" s="8">
+        <v>7</v>
+      </c>
+      <c r="R15" s="8">
         <v>5</v>
       </c>
-      <c r="S15" s="7">
+      <c r="S15" s="8">
         <v>11</v>
       </c>
-      <c r="T15" s="7">
-        <v>7</v>
-      </c>
-      <c r="U15" s="7">
-        <v>9</v>
-      </c>
-      <c r="V15" s="7">
-        <v>7</v>
-      </c>
-      <c r="W15" s="11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="14">
+      <c r="T15" s="8">
+        <v>7</v>
+      </c>
+      <c r="U15" s="8">
+        <v>9</v>
+      </c>
+      <c r="V15" s="8">
+        <v>7</v>
+      </c>
+      <c r="W15" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A16" s="17">
         <v>44713.647453703707</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="8">
         <v>2</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="8">
         <v>5</v>
       </c>
-      <c r="D16" s="7">
-        <v>8</v>
-      </c>
-      <c r="E16" s="7">
-        <v>8</v>
-      </c>
-      <c r="F16" s="7">
+      <c r="D16" s="8">
+        <v>8</v>
+      </c>
+      <c r="E16" s="8">
+        <v>8</v>
+      </c>
+      <c r="F16" s="8">
         <v>3</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="8">
         <v>12</v>
       </c>
-      <c r="H16" s="7">
-        <v>7</v>
-      </c>
-      <c r="I16" s="7">
+      <c r="H16" s="8">
+        <v>7</v>
+      </c>
+      <c r="I16" s="8">
         <v>4</v>
       </c>
-      <c r="J16" s="7">
-        <v>9</v>
-      </c>
-      <c r="K16" s="7">
-        <v>9</v>
-      </c>
-      <c r="L16" s="7">
-        <v>8</v>
-      </c>
-      <c r="M16" s="7">
+      <c r="J16" s="8">
+        <v>9</v>
+      </c>
+      <c r="K16" s="8">
+        <v>9</v>
+      </c>
+      <c r="L16" s="8">
+        <v>8</v>
+      </c>
+      <c r="M16" s="8">
         <v>11</v>
       </c>
-      <c r="N16" s="7">
+      <c r="N16" s="8">
         <v>13</v>
       </c>
-      <c r="O16" s="7">
+      <c r="O16" s="8">
         <v>11</v>
       </c>
-      <c r="P16" s="7">
-        <v>7</v>
-      </c>
-      <c r="Q16" s="7">
-        <v>8</v>
-      </c>
-      <c r="R16" s="7">
+      <c r="P16" s="8">
+        <v>7</v>
+      </c>
+      <c r="Q16" s="8">
+        <v>8</v>
+      </c>
+      <c r="R16" s="8">
         <v>4</v>
       </c>
-      <c r="S16" s="7">
+      <c r="S16" s="8">
         <v>13</v>
       </c>
-      <c r="T16" s="7">
+      <c r="T16" s="8">
         <v>14</v>
       </c>
-      <c r="U16" s="7">
+      <c r="U16" s="8">
         <v>3</v>
       </c>
-      <c r="V16" s="7">
+      <c r="V16" s="8">
         <v>5</v>
       </c>
-      <c r="W16" s="11">
+      <c r="W16" s="13">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="14">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A17" s="17">
         <v>44720.647453703707</v>
       </c>
-      <c r="B17" s="7">
-        <v>7</v>
-      </c>
-      <c r="C17" s="7">
-        <v>10</v>
-      </c>
-      <c r="D17" s="7">
-        <v>7</v>
-      </c>
-      <c r="E17" s="7">
-        <v>7</v>
-      </c>
-      <c r="F17" s="7">
-        <v>7</v>
-      </c>
-      <c r="G17" s="7">
-        <v>9</v>
-      </c>
-      <c r="H17" s="7">
-        <v>8</v>
-      </c>
-      <c r="I17" s="7">
+      <c r="B17" s="8">
+        <v>7</v>
+      </c>
+      <c r="C17" s="8">
+        <v>10</v>
+      </c>
+      <c r="D17" s="8">
+        <v>7</v>
+      </c>
+      <c r="E17" s="8">
+        <v>7</v>
+      </c>
+      <c r="F17" s="8">
+        <v>7</v>
+      </c>
+      <c r="G17" s="8">
+        <v>9</v>
+      </c>
+      <c r="H17" s="8">
+        <v>8</v>
+      </c>
+      <c r="I17" s="8">
         <v>5</v>
       </c>
-      <c r="J17" s="7">
-        <v>9</v>
-      </c>
-      <c r="K17" s="7">
-        <v>10</v>
-      </c>
-      <c r="L17" s="7">
-        <v>9</v>
-      </c>
-      <c r="M17" s="7">
-        <v>7</v>
-      </c>
-      <c r="N17" s="7">
-        <v>7</v>
-      </c>
-      <c r="O17" s="7">
-        <v>6</v>
-      </c>
-      <c r="P17" s="7">
+      <c r="J17" s="8">
+        <v>9</v>
+      </c>
+      <c r="K17" s="8">
+        <v>10</v>
+      </c>
+      <c r="L17" s="8">
+        <v>9</v>
+      </c>
+      <c r="M17" s="8">
+        <v>7</v>
+      </c>
+      <c r="N17" s="8">
+        <v>7</v>
+      </c>
+      <c r="O17" s="8">
+        <v>6</v>
+      </c>
+      <c r="P17" s="8">
         <v>11</v>
       </c>
-      <c r="Q17" s="7">
-        <v>8</v>
-      </c>
-      <c r="R17" s="7">
-        <v>6</v>
-      </c>
-      <c r="S17" s="7">
-        <v>6</v>
-      </c>
-      <c r="T17" s="7">
-        <v>9</v>
-      </c>
-      <c r="U17" s="7">
-        <v>6</v>
-      </c>
-      <c r="V17" s="7">
-        <v>9</v>
-      </c>
-      <c r="W17" s="11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="19" t="s">
+      <c r="Q17" s="8">
+        <v>8</v>
+      </c>
+      <c r="R17" s="8">
+        <v>6</v>
+      </c>
+      <c r="S17" s="8">
+        <v>6</v>
+      </c>
+      <c r="T17" s="8">
+        <v>9</v>
+      </c>
+      <c r="U17" s="8">
+        <v>6</v>
+      </c>
+      <c r="V17" s="8">
+        <v>9</v>
+      </c>
+      <c r="W17" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="20">
+      <c r="B18" s="10">
         <v>47</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C18" s="10">
         <v>56</v>
       </c>
-      <c r="D18" s="20">
+      <c r="D18" s="10">
         <v>81</v>
       </c>
-      <c r="E18" s="20">
+      <c r="E18" s="10">
         <v>61</v>
       </c>
-      <c r="F18" s="20">
+      <c r="F18" s="10">
         <v>69</v>
       </c>
-      <c r="G18" s="20">
+      <c r="G18" s="10">
         <v>76</v>
       </c>
-      <c r="H18" s="20">
+      <c r="H18" s="10">
         <v>73</v>
       </c>
-      <c r="I18" s="20">
+      <c r="I18" s="10">
         <v>55</v>
       </c>
-      <c r="J18" s="20">
+      <c r="J18" s="10">
         <v>86</v>
       </c>
-      <c r="K18" s="20">
+      <c r="K18" s="10">
         <v>84</v>
       </c>
-      <c r="L18" s="20">
+      <c r="L18" s="10">
         <v>87</v>
       </c>
-      <c r="M18" s="20">
+      <c r="M18" s="10">
         <v>77</v>
       </c>
-      <c r="N18" s="20">
+      <c r="N18" s="10">
         <v>76</v>
       </c>
-      <c r="O18" s="20">
+      <c r="O18" s="10">
         <v>60</v>
       </c>
-      <c r="P18" s="20">
+      <c r="P18" s="10">
         <v>63</v>
       </c>
-      <c r="Q18" s="20">
+      <c r="Q18" s="10">
         <v>71</v>
       </c>
-      <c r="R18" s="20">
+      <c r="R18" s="10">
         <v>54</v>
       </c>
-      <c r="S18" s="20">
+      <c r="S18" s="10">
         <v>88</v>
       </c>
-      <c r="T18" s="20">
+      <c r="T18" s="10">
         <v>85</v>
       </c>
-      <c r="U18" s="20">
+      <c r="U18" s="10">
         <v>51</v>
       </c>
-      <c r="V18" s="20">
+      <c r="V18" s="10">
         <v>60</v>
       </c>
-      <c r="W18" s="21">
+      <c r="W18" s="14">
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="15.6" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
-      <c r="W21" s="4"/>
+    <row r="19" spans="1:23" ht="16" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1798,6 +1797,6 @@
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>